--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
@@ -546,10 +546,10 @@
         <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N2">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q2">
-        <v>0.09260564731366666</v>
+        <v>0.057940124858</v>
       </c>
       <c r="R2">
-        <v>0.833450825823</v>
+        <v>0.521461123722</v>
       </c>
       <c r="S2">
-        <v>0.00517678608268288</v>
+        <v>0.005097873638389138</v>
       </c>
       <c r="T2">
-        <v>0.00517678608268288</v>
+        <v>0.005097873638389137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.218757</v>
       </c>
       <c r="I3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P3">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q3">
         <v>1.502434451364</v>
@@ -638,10 +638,10 @@
         <v>13.521910062276</v>
       </c>
       <c r="S3">
-        <v>0.08398820140655291</v>
+        <v>0.1321919999618131</v>
       </c>
       <c r="T3">
-        <v>0.08398820140655293</v>
+        <v>0.1321919999618131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.218757</v>
       </c>
       <c r="I4">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J4">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N4">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O4">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P4">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q4">
-        <v>0.04753971219433333</v>
+        <v>0.02094223957466667</v>
       </c>
       <c r="R4">
-        <v>0.4278574097490001</v>
+        <v>0.188480156172</v>
       </c>
       <c r="S4">
-        <v>0.002657536852248261</v>
+        <v>0.001842607196967096</v>
       </c>
       <c r="T4">
-        <v>0.002657536852248261</v>
+        <v>0.001842607196967096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.218757</v>
       </c>
       <c r="I5">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J5">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N5">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O5">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P5">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q5">
-        <v>0.121039852318</v>
+        <v>0.08382291835866666</v>
       </c>
       <c r="R5">
-        <v>1.089358670862</v>
+        <v>0.754406265228</v>
       </c>
       <c r="S5">
-        <v>0.006766298180579109</v>
+        <v>0.007375176474692912</v>
       </c>
       <c r="T5">
-        <v>0.006766298180579109</v>
+        <v>0.007375176474692912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.218757</v>
       </c>
       <c r="I6">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J6">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N6">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q6">
-        <v>0.05455245395600001</v>
+        <v>0.01440444356633333</v>
       </c>
       <c r="R6">
-        <v>0.4909720856040001</v>
+        <v>0.129639992097</v>
       </c>
       <c r="S6">
-        <v>0.003049558991354754</v>
+        <v>0.001267377889026687</v>
       </c>
       <c r="T6">
-        <v>0.003049558991354754</v>
+        <v>0.001267377889026687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H7">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I7">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J7">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N7">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O7">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P7">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q7">
-        <v>0.8185230614944444</v>
+        <v>0.3341431847140001</v>
       </c>
       <c r="R7">
-        <v>7.36670755345</v>
+        <v>3.007288662426</v>
       </c>
       <c r="S7">
-        <v>0.04575659169842099</v>
+        <v>0.02939965588572072</v>
       </c>
       <c r="T7">
-        <v>0.04575659169842099</v>
+        <v>0.02939965588572071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H8">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I8">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J8">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>61.812468</v>
       </c>
       <c r="O8">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P8">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q8">
-        <v>13.2797219446</v>
+        <v>8.664603910212001</v>
       </c>
       <c r="R8">
-        <v>119.5174975014</v>
+        <v>77.98143519190801</v>
       </c>
       <c r="S8">
-        <v>0.7423551558562258</v>
+        <v>0.7623569325956387</v>
       </c>
       <c r="T8">
-        <v>0.7423551558562259</v>
+        <v>0.7623569325956386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H9">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I9">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J9">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N9">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O9">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P9">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q9">
-        <v>0.4201941447055556</v>
+        <v>0.1207747936973333</v>
       </c>
       <c r="R9">
-        <v>3.78174730235</v>
+        <v>1.086973143276</v>
       </c>
       <c r="S9">
-        <v>0.02348944436367579</v>
+        <v>0.01062639472180066</v>
       </c>
       <c r="T9">
-        <v>0.02348944436367579</v>
+        <v>0.01062639472180065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H10">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I10">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J10">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N10">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O10">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P10">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q10">
-        <v>1.069847394366666</v>
+        <v>0.4834103647693334</v>
       </c>
       <c r="R10">
-        <v>9.628626549299998</v>
+        <v>4.350693282924</v>
       </c>
       <c r="S10">
-        <v>0.05980597579532877</v>
+        <v>0.04253295900071568</v>
       </c>
       <c r="T10">
-        <v>0.05980597579532877</v>
+        <v>0.04253295900071568</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H11">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I11">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J11">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N11">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O11">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P11">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q11">
-        <v>0.4821783867333334</v>
+        <v>0.08307104375566668</v>
       </c>
       <c r="R11">
-        <v>4.3396054806</v>
+        <v>0.7476393938010001</v>
       </c>
       <c r="S11">
-        <v>0.02695445077293062</v>
+        <v>0.007309022635235338</v>
       </c>
       <c r="T11">
-        <v>0.02695445077293062</v>
+        <v>0.007309022635235338</v>
       </c>
     </row>
   </sheetData>
